--- a/FALLAS MAXIGAMA.xlsx
+++ b/FALLAS MAXIGAMA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>CLASE</t>
   </si>
@@ -80,45 +80,15 @@
     <t>1/4"</t>
   </si>
   <si>
-    <t>MAXI PRIMIUNM OSTRA CLARO</t>
-  </si>
-  <si>
-    <t>MAXI PRIMIUNM AZUL MARINO</t>
-  </si>
-  <si>
     <t>MAXI PRIMIUNM VERDE ESMERALDA</t>
   </si>
   <si>
-    <t>MAXI PRIMIUNM AMARILLO GIRASOL</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>MAXI VINILICA MARFIL SUAVE</t>
-  </si>
-  <si>
-    <t>MAXI VINILICA MARFIL RAFIA</t>
-  </si>
-  <si>
-    <t>MAXI VINILICA AMARILLO MEDANO</t>
-  </si>
-  <si>
-    <t>MAXI VINILICA NARANJA</t>
-  </si>
-  <si>
-    <t>MAXI VINILICA VERDE MENZANA</t>
-  </si>
-  <si>
     <t>MAXI VINILICA TURQUESA</t>
   </si>
   <si>
-    <t>MAXI VINILICA BLANCO OSTRA</t>
-  </si>
-  <si>
-    <t>MAXI VINILICA GRIS</t>
-  </si>
-  <si>
     <t>MAXI CAUCHO GRIS PLATINO</t>
   </si>
   <si>
@@ -128,25 +98,46 @@
     <t>ESMALTE ROJO</t>
   </si>
   <si>
-    <t>ESMALTE BLANCO MATE</t>
-  </si>
-  <si>
     <t>ESMALTE BLANCO BRILLANTE</t>
   </si>
   <si>
-    <t>ESMALTE NEGRO</t>
-  </si>
-  <si>
-    <t>ESMALTE NEGRO MATE</t>
-  </si>
-  <si>
-    <t>ESMALTE GRIS ACERO</t>
-  </si>
-  <si>
-    <t>ESMALTE GRIS MACHETE</t>
-  </si>
-  <si>
     <t>ESM 1/4</t>
+  </si>
+  <si>
+    <t>MAXI CANCHA BLANCO</t>
+  </si>
+  <si>
+    <t>MAXI CANCHA VERDE</t>
+  </si>
+  <si>
+    <t>MAXI CANCHA AZUL CLARO</t>
+  </si>
+  <si>
+    <t>MAXI CANCHA ROJO</t>
+  </si>
+  <si>
+    <t>MAXI CANCHA AMARILLO</t>
+  </si>
+  <si>
+    <t>MAXI TRAFICO SOLVENTE BLANCO C/P</t>
+  </si>
+  <si>
+    <t>MAXI TRAFICO SOLVENTE NEGRO C/P</t>
+  </si>
+  <si>
+    <t>MAXI TRAFICO SOLVENTE AMARILLO C/P</t>
+  </si>
+  <si>
+    <t>MAXI TRAFICO BROCAL AMARILLO C/P</t>
+  </si>
+  <si>
+    <t>MAXI BARNIZ CAOBA</t>
+  </si>
+  <si>
+    <t>MAXI CAUCHO LILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPER MAXI </t>
   </si>
 </sst>
 </file>
@@ -184,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,21 +183,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,29 +494,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G34"/>
+  <dimension ref="C2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -519,441 +526,363 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="E26" s="4"/>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="3">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G31" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
